--- a/public/estimate.xlsx
+++ b/public/estimate.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>御中</t>
   </si>
@@ -297,6 +297,13 @@
   </si>
   <si>
     <t>ふがふが</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ABC株式会社</t>
+    <rPh sb="3" eb="7">
+      <t>カブシキガイシャ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1165,11 +1172,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1177,27 +1181,93 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1211,76 +1281,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1666,7 +1673,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1679,143 +1686,146 @@
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="2.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="42">
         <f ca="1">TODAY()</f>
-        <v>41775</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+        <v>41779</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="2"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="2"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="2"/>
       <c r="F10" s="21"/>
       <c r="G10" s="2"/>
@@ -1827,15 +1837,15 @@
       <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="2"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
@@ -1843,9 +1853,9 @@
       <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="2"/>
       <c r="F12" s="21"/>
       <c r="G12" s="2"/>
@@ -1857,79 +1867,79 @@
       <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="2"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="2"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="49">
         <f>I35</f>
         <v>9187</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="2"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="62" t="s">
+      <c r="J17" s="30"/>
+      <c r="K17" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1937,25 +1947,25 @@
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
       <c r="H18" s="9">
         <v>2000</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <f>G18*H18</f>
         <v>2000</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" t="s">
+      <c r="J18" s="26"/>
+      <c r="K18" s="62" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1963,71 +1973,73 @@
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="8">
         <v>2</v>
       </c>
       <c r="H19" s="9">
         <v>500</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <f t="shared" ref="I19:I32" si="0">G19*H19</f>
         <v>1000</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="8">
         <v>5</v>
       </c>
       <c r="H20" s="9">
         <v>300</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="8">
         <v>10</v>
       </c>
       <c r="H21" s="9">
         <v>200</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <f>G21*H21</f>
         <v>2000</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="62" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2035,345 +2047,379 @@
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="8">
         <v>15</v>
       </c>
       <c r="H22" s="9">
         <v>150</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="27">
+      <c r="I30" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="52">
+      <c r="I32" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="52"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" thickTop="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="11"/>
       <c r="H33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="41">
         <f>SUM(I18:J32)</f>
         <v>8750</v>
       </c>
-      <c r="J33" s="44"/>
+      <c r="J33" s="41"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="11"/>
       <c r="H34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="26">
         <f>ROUNDDOWN(I33*0.05,0)</f>
         <v>437</v>
       </c>
-      <c r="J34" s="27"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="11"/>
       <c r="H35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="26">
         <f>SUM(I33:J34)</f>
         <v>9187</v>
       </c>
-      <c r="J35" s="27"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
     </row>
     <row r="37" spans="1:10" ht="14.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="G11:H11"/>
@@ -2390,46 +2436,23 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
